--- a/equipment/项目部桌椅序号表.xlsx
+++ b/equipment/项目部桌椅序号表.xlsx
@@ -22,41 +22,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">XMB-Z-01
-XMB-Y-01
-XXX
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">XMB-Z-02
-XMB-Y-02
-XXX
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">XMB-Z-03
-XMB-Y-03
-XXX
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">XMB-Z-04
-XMB-Y-04
-XXX
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">XMB-Z-05
-XMB-Y-05
-XXX
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">XMB-Z-06
 XMB-Y-06
 XXX
@@ -71,16 +36,142 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">XMB-Z-07
+XMB-Y-07
+丁凯
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">XMB-Z-08
+XMB-Y-08
+张海
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">XMB-Z-09
+XMB-Y-09
+郑浩然
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">XMB-Z-13
+XMB-Y-13
+年佳茹
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">XMB-Z-14
+XMB-Y-14
+张明媛
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">XMB-Z-26
+XMB-Y-26
+马圣秦
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">XMB-Z-27
+XMB-Y-27
+王崇昂
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">XMB-Z-28
+XMB-Y-28
+王春鑫
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">XMB-Z-29
+XMB-Y-29
+贾海港
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">XMB-Z-30
+XMB-Y-30
+王芷峰
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">XMB-Z-01
+XMB-Y-01
+周昕壮
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">XMB-Z-02
+XMB-Y-02
+廖峰
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">XMB-Z-03
+XMB-Y-03
+莫鑫源
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">XMB-Z-04
+XMB-Y-04
+高浩博
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">XMB-Z-05
+XMB-Y-05
+王博辉
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">XMB-Z-010
+XMB-Y-010
+张润哲
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">XMB-Z-11
+XMB-Y-11
+杨磊
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">XMB-Z-12
+XMB-Y-12
+刘强
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">XMB-Z-16
 XMB-Y16
-廖烽
+潘德鑫
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">XMB-Z-17
 XMB-Y-17
-王博辉
+刘轩睿
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,142 +183,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">XMB-Z-07
-XMB-Y-07
-丁凯
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">XMB-Z-08
-XMB-Y-08
-张海
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">XMB-Z-09
-XMB-Y-09
-郑浩然
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">XMB-Z-010
-XMB-Y-010
-曹一健
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">XMB-Z-11
-XMB-Y-11
-张润哲
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">XMB-Z-12
-XMB-Y-12
-杨磊
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">XMB-Z-13
-XMB-Y-13
-年佳茹
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">XMB-Z-14
-XMB-Y-14
-张明媛
+    <t xml:space="preserve">XMB-Z-19
+XMB-Y-19
+张天庆
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">XMB-Z-20
+XMB-Y-20
+XXX
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">XMB-Z-21
+XMB-Y-21
+XXX
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">XMB-Z-22
 XMB-Y-22
-潘德新
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">XMB-Z-21
-XMB-Y-21
-张天庆
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">XMB-Z-19
-XMB-Y-19
-刘轩睿
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">XMB-Z-20
-XMB-Y-20
-莫鑫源
+XXX
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">XMB-Z-23
 XMB-Y-23
-周昕壮
+XXX
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">XMB-Z-24
 XMB-Y-24
-高浩博
+XXX
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">XMB-Z-25
 XMB-Y-25
-马瑞阳
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">XMB-Z-26
-XMB-Y-26
-马圣秦
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">XMB-Z-27
-XMB-Y-27
-王崇昂
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">XMB-Z-28
-XMB-Y-28
-王春鑫
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">XMB-Z-29
-XMB-Y-29
-贾海港
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">XMB-Z-30
-XMB-Y-30
-王芷峰
+XXX
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -292,14 +292,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -608,7 +608,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:H5"/>
+      <selection activeCell="M5" sqref="M5:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -654,204 +654,204 @@
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" ht="69.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" ht="69.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" ht="69.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" ht="69.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" ht="69.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" ht="69.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="D3" s="3" t="s">
+      <c r="B8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" ht="69.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="J9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="G3" s="3" t="s">
+      <c r="K9" s="1"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" ht="69.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="J3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="3"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" ht="69.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="D4" s="3" t="s">
+      <c r="E10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="J10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="G4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" ht="69.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="G5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="J5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="3"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" ht="69.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="G6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="J6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" ht="69.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="D7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="G7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="J7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" ht="69.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="D8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="G8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="J8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" ht="69.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="D9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="G9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="J9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" ht="69.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="G10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="J10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="3"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="J8:K8"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A1:N2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
